--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1068.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1068.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.07008606190275604</v>
+        <v>0.07758606190275605</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.115129092854134</v>
+        <v>0.100129092854134</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1301721238055121</v>
+        <v>0.1376721238055121</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.001830061966783088</v>
+        <v>0.002208615859679162</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.001830061966783088</v>
+        <v>0.002208615859679162</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.003198846912413247</v>
+        <v>0.002733661584345787</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.003551048864263908</v>
+        <v>0.00370852764302394</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.03620605733560987</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.003967006268992613</v>
+        <v>0.004217023220627864</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.003967006268992613</v>
+        <v>0.004217023220627864</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.006104984790705975</v>
+        <v>0.005690889960287657</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.007424566768078617</v>
+        <v>0.007851592860031323</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.07241211467121973</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.005695218329167051</v>
+        <v>0.006146611656813209</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.005695218329167051</v>
+        <v>0.006146611656813209</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.009334791312497355</v>
+        <v>0.008269523477468278</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01099046618021658</v>
+        <v>0.01169773653337016</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.1086181720068296</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.007508337040458233</v>
+        <v>0.008692842269088364</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.007508337040458233</v>
+        <v>0.008692842269088364</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01209113471713225</v>
+        <v>0.01086828344547385</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.0144474615746115</v>
+        <v>0.01557454464824655</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1448242293424395</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.009526297806909988</v>
+        <v>0.01028439446110144</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.009526297806909988</v>
+        <v>0.01028439446110144</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.0161490326089569</v>
+        <v>0.01316786644175716</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.01849777171502204</v>
+        <v>0.01932233773470273</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1810302866780493</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01193985503304917</v>
+        <v>0.01299500678812371</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01193985503304917</v>
+        <v>0.01299500678812371</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01894352825949212</v>
+        <v>0.0168768449539175</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.0211853672957519</v>
+        <v>0.02184280524644835</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.2172363440136592</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01307429165637804</v>
+        <v>0.01521689963245552</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01307429165637804</v>
+        <v>0.01521689963245552</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.02119451076761125</v>
+        <v>0.01941168984160058</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.02573599946572865</v>
+        <v>0.02595969350116758</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.253442401349269</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.01591828372147453</v>
+        <v>0.01707209480542839</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.01591828372147453</v>
+        <v>0.01707209480542839</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.02467011782446537</v>
+        <v>0.02216085423266289</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.02753998744795253</v>
+        <v>0.03000926956714582</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2896484586848789</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.01668130133958196</v>
+        <v>0.01847587250021111</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.01668130133958196</v>
+        <v>0.01847587250021111</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.02931030655126055</v>
+        <v>0.02489913946111711</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.03132935224714763</v>
+        <v>0.03481386401683541</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.3258545160204888</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.01929437015847977</v>
+        <v>0.02090808964110397</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.01929437015847977</v>
+        <v>0.02090808964110397</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.03266082427729392</v>
+        <v>0.02660227236741233</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03567667334503916</v>
+        <v>0.03775091918556688</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.3620605733560986</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02178921693624865</v>
+        <v>0.02314262723272403</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02178921693624865</v>
+        <v>0.02314262723272403</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.03574458900535209</v>
+        <v>0.02937917862312525</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.0384081134004448</v>
+        <v>0.04142728656063679</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3982666306917085</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02366270081130213</v>
+        <v>0.02590601879459041</v>
       </c>
       <c r="G77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02366270081130213</v>
+        <v>0.02590601879459041</v>
       </c>
       <c r="K77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03880636709231162</v>
+        <v>0.03361299992231227</v>
       </c>
       <c r="M77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04436578679918714</v>
+        <v>0.04520443233658542</v>
       </c>
       <c r="O77" t="n">
         <v>0.4344726880273184</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02548596370462953</v>
+        <v>0.02745751292645584</v>
       </c>
       <c r="G78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02548596370462953</v>
+        <v>0.02745751292645584</v>
       </c>
       <c r="K78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04001537780678605</v>
+        <v>0.03500828771731441</v>
       </c>
       <c r="M78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04737256688500545</v>
+        <v>0.05018029305376039</v>
       </c>
       <c r="O78" t="n">
         <v>0.4706787453629283</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02614662610965877</v>
+        <v>0.03129914248883572</v>
       </c>
       <c r="G79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02614662610965877</v>
+        <v>0.03129914248883572</v>
       </c>
       <c r="K79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04341170391221175</v>
+        <v>0.03854616960785795</v>
       </c>
       <c r="M79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04870297542490331</v>
+        <v>0.05531589180548945</v>
       </c>
       <c r="O79" t="n">
         <v>0.5068848026985381</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.03053411953331225</v>
+        <v>0.03305132679608358</v>
       </c>
       <c r="G80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03053411953331225</v>
+        <v>0.03305132679608358</v>
       </c>
       <c r="K80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04645943401449374</v>
+        <v>0.04276260983276018</v>
       </c>
       <c r="M80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0527298279818794</v>
+        <v>0.05586504766171899</v>
       </c>
       <c r="O80" t="n">
         <v>0.543090860034148</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03035441386182188</v>
+        <v>0.03590130092768272</v>
       </c>
       <c r="G81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03035441386182188</v>
+        <v>0.03590130092768272</v>
       </c>
       <c r="K81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0518139212514076</v>
+        <v>0.0449339898804287</v>
       </c>
       <c r="M81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05701477962758646</v>
+        <v>0.06312916572848278</v>
       </c>
       <c r="O81" t="n">
         <v>0.5792969173697579</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03356882939157298</v>
+        <v>0.03557928130911907</v>
       </c>
       <c r="G82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03356882939157298</v>
+        <v>0.03557928130911907</v>
       </c>
       <c r="K82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05617458021394339</v>
+        <v>0.04658166372587128</v>
       </c>
       <c r="M82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="N82" t="n">
-        <v>0.059842230437632</v>
+        <v>0.06312038816990735</v>
       </c>
       <c r="O82" t="n">
         <v>0.6155029747053677</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03630497812816864</v>
+        <v>0.03949608109114114</v>
       </c>
       <c r="G83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03630497812816864</v>
+        <v>0.03949608109114114</v>
       </c>
       <c r="K83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05721939565139886</v>
+        <v>0.05250641102488364</v>
       </c>
       <c r="M83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06845681712574313</v>
+        <v>0.06649327995484799</v>
       </c>
       <c r="O83" t="n">
         <v>0.6517090320409776</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03814844854915853</v>
+        <v>0.04258405567470364</v>
       </c>
       <c r="G84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03814844854915853</v>
+        <v>0.04258405567470364</v>
       </c>
       <c r="K84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06165993714432772</v>
+        <v>0.05152689485909806</v>
       </c>
       <c r="M84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06970967335672451</v>
+        <v>0.07577441874863673</v>
       </c>
       <c r="O84" t="n">
         <v>0.6879150893765874</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.03828794425188179</v>
+        <v>0.04497615760827631</v>
       </c>
       <c r="G85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03828794425188179</v>
+        <v>0.04497615760827631</v>
       </c>
       <c r="K85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06571776855698548</v>
+        <v>0.05494481815316739</v>
       </c>
       <c r="M85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07160393007449659</v>
+        <v>0.07794422213142035</v>
       </c>
       <c r="O85" t="n">
         <v>0.7241211467121973</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.04176812499933068</v>
+        <v>0.04390661974718869</v>
       </c>
       <c r="G86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04176812499933068</v>
+        <v>0.04390661974718869</v>
       </c>
       <c r="K86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06533880803417999</v>
+        <v>0.05761853461701089</v>
       </c>
       <c r="M86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07576402164429812</v>
+        <v>0.08219750522269782</v>
       </c>
       <c r="O86" t="n">
         <v>0.7603272040478072</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.04331308858387512</v>
+        <v>0.04816625604571923</v>
       </c>
       <c r="G87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04331308858387512</v>
+        <v>0.04816625604571923</v>
       </c>
       <c r="K87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07210020925964579</v>
+        <v>0.06092709238180286</v>
       </c>
       <c r="M87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07747102942290005</v>
+        <v>0.08448810823361758</v>
       </c>
       <c r="O87" t="n">
         <v>0.7965332613834171</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04491062713871807</v>
+        <v>0.04613119565823726</v>
       </c>
       <c r="G88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04491062713871807</v>
+        <v>0.04613119565823726</v>
       </c>
       <c r="K88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0718702079208961</v>
+        <v>0.06418051111151561</v>
       </c>
       <c r="M88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08404780323921951</v>
+        <v>0.08543322227625322</v>
       </c>
       <c r="O88" t="n">
         <v>0.832739318719027</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04550553797174243</v>
+        <v>0.05019771502879384</v>
       </c>
       <c r="G89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04550553797174243</v>
+        <v>0.05019771502879384</v>
       </c>
       <c r="K89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07358095810590501</v>
+        <v>0.06197152607303046</v>
       </c>
       <c r="M89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08416269698231825</v>
+        <v>0.08528622888503141</v>
       </c>
       <c r="O89" t="n">
         <v>0.8689453760546368</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04421272281135875</v>
+        <v>0.04906052873840343</v>
       </c>
       <c r="G90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04421272281135875</v>
+        <v>0.04906052873840343</v>
       </c>
       <c r="K90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07561253262134809</v>
+        <v>0.0635572797592843</v>
       </c>
       <c r="M90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08804272377454994</v>
+        <v>0.08921310857040737</v>
       </c>
       <c r="O90" t="n">
         <v>0.9051514333902466</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04597673382460797</v>
+        <v>0.05091757377855285</v>
       </c>
       <c r="G91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04597673382460797</v>
+        <v>0.05091757377855285</v>
       </c>
       <c r="K91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07657506557729858</v>
+        <v>0.06812905208031085</v>
       </c>
       <c r="M91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08754070227637695</v>
+        <v>0.09596324168694545</v>
       </c>
       <c r="O91" t="n">
         <v>0.9413574907258565</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04889312468003361</v>
+        <v>0.05512281847604988</v>
       </c>
       <c r="G92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04889312468003361</v>
+        <v>0.05512281847604988</v>
       </c>
       <c r="K92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08037125431632072</v>
+        <v>0.07075349791955696</v>
       </c>
       <c r="M92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09129341220169407</v>
+        <v>0.09111041559091018</v>
       </c>
       <c r="O92" t="n">
         <v>0.9775635480614664</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05046208656174571</v>
+        <v>0.05311406674514439</v>
       </c>
       <c r="G93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05046208656174571</v>
+        <v>0.05311406674514439</v>
       </c>
       <c r="K93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08383354872351184</v>
+        <v>0.0693645110779065</v>
       </c>
       <c r="M93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09587820721809456</v>
+        <v>0.09693325804901279</v>
       </c>
       <c r="O93" t="n">
         <v>1.013769605397076</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04867977976812928</v>
+        <v>0.05453732177052167</v>
       </c>
       <c r="G94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04867977976812928</v>
+        <v>0.05453732177052167</v>
       </c>
       <c r="K94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08541361193552624</v>
+        <v>0.07112627423141918</v>
       </c>
       <c r="M94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09227031484128101</v>
+        <v>0.09766589397464913</v>
       </c>
       <c r="O94" t="n">
         <v>1.049975662732686</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05350864882548164</v>
+        <v>0.05876075533556423</v>
       </c>
       <c r="G95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05350864882548164</v>
+        <v>0.05876075533556423</v>
       </c>
       <c r="K95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08563541986088648</v>
+        <v>0.07247374920725516</v>
       </c>
       <c r="M95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09658524074154504</v>
+        <v>0.1063345844004437</v>
       </c>
       <c r="O95" t="n">
         <v>1.086181720068296</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05335946123181672</v>
+        <v>0.05627223203842424</v>
       </c>
       <c r="G96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05335946123181672</v>
+        <v>0.05627223203842424</v>
       </c>
       <c r="K96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08438379879509733</v>
+        <v>0.07308871936700403</v>
       </c>
       <c r="M96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09531180345665202</v>
+        <v>0.1047121583079803</v>
       </c>
       <c r="O96" t="n">
         <v>1.122387777403906</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05263698759811872</v>
+        <v>0.06156735413040146</v>
       </c>
       <c r="G97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05263698759811872</v>
+        <v>0.06156735413040146</v>
       </c>
       <c r="K97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08892568926082341</v>
+        <v>0.0765498856418016</v>
       </c>
       <c r="M97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1021598627679268</v>
+        <v>0.1057264210092872</v>
       </c>
       <c r="O97" t="n">
         <v>1.158593834739516</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05413100968361097</v>
+        <v>0.06050459928497777</v>
       </c>
       <c r="G98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05413100968361097</v>
+        <v>0.06050459928497777</v>
       </c>
       <c r="K98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09402964365959719</v>
+        <v>0.07875618429221787</v>
       </c>
       <c r="M98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1042038745732659</v>
+        <v>0.1107123897999443</v>
       </c>
       <c r="O98" t="n">
         <v>1.194799892075125</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05673667981009522</v>
+        <v>0.06354090688560493</v>
       </c>
       <c r="G99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05673667981009522</v>
+        <v>0.06354090688560493</v>
       </c>
       <c r="K99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09108045677310606</v>
+        <v>0.07752899622538868</v>
       </c>
       <c r="M99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1001195000060524</v>
+        <v>0.110531718103046</v>
       </c>
       <c r="O99" t="n">
         <v>1.231005949410735</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05780524576316274</v>
+        <v>0.06440418800228292</v>
       </c>
       <c r="G100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05780524576316274</v>
+        <v>0.06440418800228292</v>
       </c>
       <c r="K100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09153747838309161</v>
+        <v>0.07981315145278332</v>
       </c>
       <c r="M100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1101037817797128</v>
+        <v>0.1074507196321856</v>
       </c>
       <c r="O100" t="n">
         <v>1.267212006746345</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05978637150600605</v>
+        <v>0.06126376169254166</v>
       </c>
       <c r="G101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05978637150600605</v>
+        <v>0.06126376169254166</v>
       </c>
       <c r="K101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09644595451198004</v>
+        <v>0.08337149019859538</v>
       </c>
       <c r="M101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1048241212755225</v>
+        <v>0.1151727790682114</v>
       </c>
       <c r="O101" t="n">
         <v>1.303418064081955</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06117643357986841</v>
+        <v>0.06746498578183867</v>
       </c>
       <c r="G102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06117643357986841</v>
+        <v>0.06746498578183867</v>
       </c>
       <c r="K102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09250102934307376</v>
+        <v>0.08163130361897478</v>
       </c>
       <c r="M102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="N102" t="n">
-        <v>0.105215123403397</v>
+        <v>0.1182935471299678</v>
       </c>
       <c r="O102" t="n">
         <v>1.339624121417565</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05976841622724854</v>
+        <v>0.06831573074575975</v>
       </c>
       <c r="G103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05976841622724854</v>
+        <v>0.06831573074575975</v>
       </c>
       <c r="K103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1011982878935697</v>
+        <v>0.08747319766777999</v>
       </c>
       <c r="M103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1105701145357413</v>
+        <v>0.1129142877907008</v>
       </c>
       <c r="O103" t="n">
         <v>1.375830178753175</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0595696325807533</v>
+        <v>0.06496396764149016</v>
       </c>
       <c r="G104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0595696325807533</v>
+        <v>0.06496396764149016</v>
       </c>
       <c r="K104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1024046072618398</v>
+        <v>0.0880965285389456</v>
       </c>
       <c r="M104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="N104" t="n">
-        <v>0.116451800185973</v>
+        <v>0.1173787384640293</v>
       </c>
       <c r="O104" t="n">
         <v>1.412036236088785</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06094000249451545</v>
+        <v>0.06660325788117478</v>
       </c>
       <c r="G105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06094000249451545</v>
+        <v>0.06660325788117478</v>
       </c>
       <c r="K105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09575825783262437</v>
+        <v>0.0854015218636235</v>
       </c>
       <c r="M105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1086413862857959</v>
+        <v>0.123916901895929</v>
       </c>
       <c r="O105" t="n">
         <v>1.448242293424395</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06105159486210521</v>
+        <v>0.06878453514019087</v>
       </c>
       <c r="G106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06105159486210521</v>
+        <v>0.06878453514019087</v>
       </c>
       <c r="K106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1012036171699675</v>
+        <v>0.08677579339973815</v>
       </c>
       <c r="M106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1145635800194042</v>
+        <v>0.1208275099156716</v>
       </c>
       <c r="O106" t="n">
         <v>1.484448350760005</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06039592210406388</v>
+        <v>0.06590706805573443</v>
       </c>
       <c r="G107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06039592210406388</v>
+        <v>0.06590706805573443</v>
       </c>
       <c r="K107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1027374796413198</v>
+        <v>0.0915702973366067</v>
       </c>
       <c r="M107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1167818406449152</v>
+        <v>0.1265725857687751</v>
       </c>
       <c r="O107" t="n">
         <v>1.520654408095614</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06464847185591525</v>
+        <v>0.06843485875224824</v>
       </c>
       <c r="G108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06464847185591525</v>
+        <v>0.06843485875224824</v>
       </c>
       <c r="K108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1047606612921504</v>
+        <v>0.09338666109648208</v>
       </c>
       <c r="M108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1156187746331646</v>
+        <v>0.1260585914457394</v>
       </c>
       <c r="O108" t="n">
         <v>1.556860465431224</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06193447214657444</v>
+        <v>0.06948961802179913</v>
       </c>
       <c r="G109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06193447214657444</v>
+        <v>0.06948961802179913</v>
       </c>
       <c r="K109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1003209899136453</v>
+        <v>0.08948219602170912</v>
       </c>
       <c r="M109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1212913980402637</v>
+        <v>0.1219938090188877</v>
       </c>
       <c r="O109" t="n">
         <v>1.593066522766834</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06620457452942323</v>
+        <v>0.06961947836990028</v>
       </c>
       <c r="G110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06620457452942323</v>
+        <v>0.06961947836990028</v>
       </c>
       <c r="K110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="L110" t="n">
-        <v>0.107376027525586</v>
+        <v>0.09178028027094587</v>
       </c>
       <c r="M110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1235293899309627</v>
+        <v>0.124522295626124</v>
       </c>
       <c r="O110" t="n">
         <v>1.629272580102444</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06282820667369607</v>
+        <v>0.07033110103132215</v>
       </c>
       <c r="G111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06282820667369607</v>
+        <v>0.07033110103132215</v>
       </c>
       <c r="K111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1090853458135905</v>
+        <v>0.09162590158604683</v>
       </c>
       <c r="M111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1225129896573211</v>
+        <v>0.1235761970006637</v>
       </c>
       <c r="O111" t="n">
         <v>1.665478637438054</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06356917765271176</v>
+        <v>0.07145762764371948</v>
       </c>
       <c r="G112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06356917765271176</v>
+        <v>0.07145762764371948</v>
       </c>
       <c r="K112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1029610796162322</v>
+        <v>0.08904859344126999</v>
       </c>
       <c r="M112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1160619621832734</v>
+        <v>0.12405423576299</v>
       </c>
       <c r="O112" t="n">
         <v>1.701684694773664</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06695639365136677</v>
+        <v>0.07379029505264706</v>
       </c>
       <c r="G113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06695639365136677</v>
+        <v>0.07379029505264706</v>
       </c>
       <c r="K113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1036099126684995</v>
+        <v>0.09505390439042911</v>
       </c>
       <c r="M113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1189914971380553</v>
+        <v>0.1292925761142858</v>
       </c>
       <c r="O113" t="n">
         <v>1.737890752109274</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06302718074045106</v>
+        <v>0.07365325166078399</v>
       </c>
       <c r="G114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06302718074045106</v>
+        <v>0.07365325166078399</v>
       </c>
       <c r="K114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="L114" t="n">
-        <v>0.104545572231394</v>
+        <v>0.09148626596394303</v>
       </c>
       <c r="M114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1193116551434106</v>
+        <v>0.1338036790501775</v>
       </c>
       <c r="O114" t="n">
         <v>1.774096809444883</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06603273857220397</v>
+        <v>0.07225112374249207</v>
       </c>
       <c r="G115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06603273857220397</v>
+        <v>0.07225112374249207</v>
       </c>
       <c r="K115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1076573232553602</v>
+        <v>0.09867740219192102</v>
       </c>
       <c r="M115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1244490793435855</v>
+        <v>0.127912525266894</v>
       </c>
       <c r="O115" t="n">
         <v>1.810302866780493</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06979325013073175</v>
+        <v>0.07582636821704414</v>
       </c>
       <c r="G116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06979325013073175</v>
+        <v>0.07582636821704414</v>
       </c>
       <c r="K116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1119280033134141</v>
+        <v>0.09156858976660778</v>
       </c>
       <c r="M116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1290468504143202</v>
+        <v>0.1304502683118877</v>
       </c>
       <c r="O116" t="n">
         <v>1.846508924116103</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06523927748863928</v>
+        <v>0.07513375471390799</v>
       </c>
       <c r="G117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06523927748863928</v>
+        <v>0.07513375471390799</v>
       </c>
       <c r="K117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1058804363109347</v>
+        <v>0.09329078691776117</v>
       </c>
       <c r="M117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1293914539692347</v>
+        <v>0.1309755076580129</v>
       </c>
       <c r="O117" t="n">
         <v>1.882714981451713</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.07049969247667315</v>
+        <v>0.07543254218966945</v>
       </c>
       <c r="G118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07049969247667315</v>
+        <v>0.07543254218966945</v>
       </c>
       <c r="K118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1156978406006268</v>
+        <v>0.09658916065639439</v>
       </c>
       <c r="M118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1210628561241474</v>
+        <v>0.1378100655947313</v>
       </c>
       <c r="O118" t="n">
         <v>1.918921038787323</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06629687792336571</v>
+        <v>0.0724830088097637</v>
       </c>
       <c r="G119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06629687792336571</v>
+        <v>0.0724830088097637</v>
       </c>
       <c r="K119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1166581116965678</v>
+        <v>0.09859107590628741</v>
       </c>
       <c r="M119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1260920154722107</v>
+        <v>0.1310738763264868</v>
       </c>
       <c r="O119" t="n">
         <v>1.955127096122933</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06741586214886119</v>
+        <v>0.07418463528299922</v>
       </c>
       <c r="G120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06741586214886119</v>
+        <v>0.07418463528299922</v>
       </c>
       <c r="K120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1131405139707396</v>
+        <v>0.1009039303739383</v>
       </c>
       <c r="M120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="N120" t="n">
-        <v>0.131035891065672</v>
+        <v>0.1385131786446976</v>
       </c>
       <c r="O120" t="n">
         <v>1.991333153458543</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06873423256468653</v>
+        <v>0.07808593601870466</v>
       </c>
       <c r="G121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06873423256468653</v>
+        <v>0.07808593601870466</v>
       </c>
       <c r="K121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1091350899538069</v>
+        <v>0.09621894339838841</v>
       </c>
       <c r="M121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1244124982693339</v>
+        <v>0.1359729377412238</v>
       </c>
       <c r="O121" t="n">
         <v>2.027539210794152</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.07127096126291765</v>
+        <v>0.0735967203569912</v>
       </c>
       <c r="G122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07127096126291765</v>
+        <v>0.0735967203569912</v>
       </c>
       <c r="K122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1142459542981461</v>
+        <v>0.1003256871894642</v>
       </c>
       <c r="M122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1322663797428295</v>
+        <v>0.1380684678408121</v>
       </c>
       <c r="O122" t="n">
         <v>2.063745268129762</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06875454389765838</v>
+        <v>0.07636484406333714</v>
       </c>
       <c r="G123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06875454389765838</v>
+        <v>0.07636484406333714</v>
       </c>
       <c r="K123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1146355053758605</v>
+        <v>0.09554771481136837</v>
       </c>
       <c r="M123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1298599277589697</v>
+        <v>0.1329791542776356</v>
       </c>
       <c r="O123" t="n">
         <v>2.099951325465372</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07254045100292089</v>
+        <v>0.07490547530919288</v>
       </c>
       <c r="G124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07254045100292089</v>
+        <v>0.07490547530919288</v>
       </c>
       <c r="K124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1148594894834518</v>
+        <v>0.1017998274128871</v>
       </c>
       <c r="M124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1326457364521546</v>
+        <v>0.1391039280513379</v>
       </c>
       <c r="O124" t="n">
         <v>2.136157382800982</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.07021877224731383</v>
+        <v>0.07781781823683125</v>
       </c>
       <c r="G125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07021877224731383</v>
+        <v>0.07781781823683125</v>
       </c>
       <c r="K125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1128176525812509</v>
+        <v>0.1007964935538361</v>
       </c>
       <c r="M125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1317130754059079</v>
+        <v>0.1306885977136983</v>
       </c>
       <c r="O125" t="n">
         <v>2.172363440136592</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.07131746329449355</v>
+        <v>0.07829970375693815</v>
       </c>
       <c r="G126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07131746329449355</v>
+        <v>0.07829970375693815</v>
       </c>
       <c r="K126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1132391808120184</v>
+        <v>0.09753738402865898</v>
       </c>
       <c r="M126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1349671927233292</v>
+        <v>0.1418215700232647</v>
       </c>
       <c r="O126" t="n">
         <v>2.208569497472202</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.07218383547620084</v>
+        <v>0.07562433630372525</v>
       </c>
       <c r="G127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07218383547620084</v>
+        <v>0.07562433630372525</v>
       </c>
       <c r="K127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1119307250545817</v>
+        <v>0.09783732213459043</v>
       </c>
       <c r="M127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1274753770228969</v>
+        <v>0.1344408852332551</v>
       </c>
       <c r="O127" t="n">
         <v>2.244775554807812</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07008606190275604</v>
+        <v>0.07758606190275605</v>
       </c>
       <c r="G128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07008606190275604</v>
+        <v>0.07758606190275605</v>
       </c>
       <c r="K128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="L128" t="n">
-        <v>0.115129092854134</v>
+        <v>0.100129092854134</v>
       </c>
       <c r="M128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1329210915792305</v>
+        <v>0.1328106937434888</v>
       </c>
       <c r="O128" t="n">
         <v>2.280981612143421</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07007905328788784</v>
+        <v>0.08096105558834438</v>
       </c>
       <c r="G129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07007905328788784</v>
+        <v>0.08096105558834438</v>
       </c>
       <c r="K129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1199990533860014</v>
+        <v>0.1047150053018852</v>
       </c>
       <c r="M129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1301721238055121</v>
+        <v>0.1376721238055121</v>
       </c>
       <c r="O129" t="n">
         <v>2.317187669479031</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06762980753500279</v>
+        <v>0.07600844111438811</v>
       </c>
       <c r="G130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06762980753500279</v>
+        <v>0.07600844111438811</v>
       </c>
       <c r="K130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1201925184995605</v>
+        <v>0.09886565514249085</v>
       </c>
       <c r="M130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1254579908508106</v>
+        <v>0.1413517933290583</v>
       </c>
       <c r="O130" t="n">
         <v>2.353393726814641</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06792858082984733</v>
+        <v>0.07669108194496757</v>
       </c>
       <c r="G131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06792858082984733</v>
+        <v>0.07669108194496757</v>
       </c>
       <c r="K131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1114153810155523</v>
+        <v>0.09707817190152314</v>
       </c>
       <c r="M131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1368349912617573</v>
+        <v>0.1434539426809136</v>
       </c>
       <c r="O131" t="n">
         <v>2.389599784150251</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06731741422581526</v>
+        <v>0.07473132354528589</v>
       </c>
       <c r="G132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06731741422581526</v>
+        <v>0.07473132354528589</v>
       </c>
       <c r="K132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1193169568479727</v>
+        <v>0.09634885877171409</v>
       </c>
       <c r="M132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1330752163266738</v>
+        <v>0.1385005887347114</v>
       </c>
       <c r="O132" t="n">
         <v>2.425805841485861</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06877378812058231</v>
+        <v>0.0792036648814723</v>
       </c>
       <c r="G133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06877378812058231</v>
+        <v>0.0792036648814723</v>
       </c>
       <c r="K133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="L133" t="n">
-        <v>0.118708354115433</v>
+        <v>0.1020130584084458</v>
       </c>
       <c r="M133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1366552255216003</v>
+        <v>0.1344903979837423</v>
       </c>
       <c r="O133" t="n">
         <v>2.462011898821471</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06966336112452512</v>
+        <v>0.07462187128712031</v>
       </c>
       <c r="G134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06966336112452512</v>
+        <v>0.07462187128712031</v>
       </c>
       <c r="K134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1116787710697687</v>
+        <v>0.1022079111629844</v>
       </c>
       <c r="M134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="N134" t="n">
-        <v>0.132891137117307</v>
+        <v>0.137410740288575</v>
       </c>
       <c r="O134" t="n">
         <v>2.498217956157081</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07096644405152326</v>
+        <v>0.08112773019422066</v>
       </c>
       <c r="G135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07096644405152326</v>
+        <v>0.08112773019422066</v>
       </c>
       <c r="K135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1146364393662135</v>
+        <v>0.1030701979756929</v>
       </c>
       <c r="M135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1321017825939934</v>
+        <v>0.141624010310187</v>
       </c>
       <c r="O135" t="n">
         <v>2.534424013492691</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0721228993497806</v>
+        <v>0.08003242330742955</v>
       </c>
       <c r="G136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0721228993497806</v>
+        <v>0.08003242330742955</v>
       </c>
       <c r="K136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1154516637704745</v>
+        <v>0.1027787889855455</v>
       </c>
       <c r="M136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1316327117425431</v>
+        <v>0.1407933151186505</v>
       </c>
       <c r="O136" t="n">
         <v>2.570630070828301</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07223136456749943</v>
+        <v>0.08086892211791115</v>
       </c>
       <c r="G137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07223136456749943</v>
+        <v>0.08086892211791115</v>
       </c>
       <c r="K137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1142046294065023</v>
+        <v>0.1042452912584982</v>
       </c>
       <c r="M137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="N137" t="n">
-        <v>0.127516187553469</v>
+        <v>0.1458187443226888</v>
       </c>
       <c r="O137" t="n">
         <v>2.606836128163911</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07125211631717053</v>
+        <v>0.07711884677091904</v>
       </c>
       <c r="G138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07125211631717053</v>
+        <v>0.07711884677091904</v>
       </c>
       <c r="K138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1153218854864522</v>
+        <v>0.09978864429607223</v>
       </c>
       <c r="M138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1370514293014765</v>
+        <v>0.1446108255177421</v>
       </c>
       <c r="O138" t="n">
         <v>2.64304218549952</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07264934306027244</v>
+        <v>0.07958643318723266</v>
       </c>
       <c r="G139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07264934306027244</v>
+        <v>0.07958643318723266</v>
       </c>
       <c r="K139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1122186759066448</v>
+        <v>0.09685169075848028</v>
       </c>
       <c r="M139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1324714229907828</v>
+        <v>0.1427111668234628</v>
       </c>
       <c r="O139" t="n">
         <v>2.67924824283513</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07102741664053498</v>
+        <v>0.07679882031455977</v>
       </c>
       <c r="G140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07102741664053498</v>
+        <v>0.07679882031455977</v>
       </c>
       <c r="K140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1095505466169064</v>
+        <v>0.1008602996580424</v>
       </c>
       <c r="M140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1338089962350139</v>
+        <v>0.1418389526828913</v>
       </c>
       <c r="O140" t="n">
         <v>2.71545430017074</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07005193714197054</v>
+        <v>0.07998078479566664</v>
       </c>
       <c r="G141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07005193714197054</v>
+        <v>0.07998078479566664</v>
       </c>
       <c r="K141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1148004598938836</v>
+        <v>0.09947939107497566</v>
       </c>
       <c r="M141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1332406159507813</v>
+        <v>0.143571955940195</v>
       </c>
       <c r="O141" t="n">
         <v>2.75166035750635</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07153823595509697</v>
+        <v>0.07546743268177748</v>
       </c>
       <c r="G142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07153823595509697</v>
+        <v>0.07546743268177748</v>
       </c>
       <c r="K142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1136216694083082</v>
+        <v>0.1034909004107618</v>
       </c>
       <c r="M142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1403610715622616</v>
+        <v>0.1386470222199649</v>
       </c>
       <c r="O142" t="n">
         <v>2.78786641484196</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07016000353186776</v>
+        <v>0.08027218856670251</v>
       </c>
       <c r="G143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07016000353186776</v>
+        <v>0.08027218856670251</v>
       </c>
       <c r="K143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1067262721735182</v>
+        <v>0.1041233863617951</v>
       </c>
       <c r="M143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1332344128767714</v>
+        <v>0.1371029031164121</v>
       </c>
       <c r="O143" t="n">
         <v>2.82407247217757</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07181655214729774</v>
+        <v>0.07643590024421504</v>
       </c>
       <c r="G144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07181655214729774</v>
+        <v>0.07643590024421504</v>
       </c>
       <c r="K144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1063314048325863</v>
+        <v>0.1045243649080087</v>
       </c>
       <c r="M144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1388637242847134</v>
+        <v>0.1420484366161911</v>
       </c>
       <c r="O144" t="n">
         <v>2.86027852951318</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06733941970780971</v>
+        <v>0.07391117314400761</v>
       </c>
       <c r="G145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06733941970780971</v>
+        <v>0.07391117314400761</v>
       </c>
       <c r="K145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1050622184198504</v>
+        <v>0.1030381292767522</v>
       </c>
       <c r="M145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1308880768826403</v>
+        <v>0.1481252669932314</v>
       </c>
       <c r="O145" t="n">
         <v>2.896484586848789</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07260705942834776</v>
+        <v>0.07633234446006472</v>
       </c>
       <c r="G146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="J146" t="n">
-        <v>0.07260705942834776</v>
+        <v>0.07633234446006472</v>
       </c>
       <c r="K146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1136873192349662</v>
+        <v>0.1020405430876394</v>
       </c>
       <c r="M146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1311699764601754</v>
+        <v>0.1480365625449885</v>
       </c>
       <c r="O146" t="n">
         <v>2.932690644184399</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0665064669908205</v>
+        <v>0.07942127460075085</v>
       </c>
       <c r="G147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0665064669908205</v>
+        <v>0.07942127460075085</v>
       </c>
       <c r="K147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1091661153193729</v>
+        <v>0.102428415513061</v>
       </c>
       <c r="M147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1359599739142561</v>
+        <v>0.1488343839139138</v>
       </c>
       <c r="O147" t="n">
         <v>2.968896701520009</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07234520139805665</v>
+        <v>0.07752723942748582</v>
       </c>
       <c r="G148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="J148" t="n">
-        <v>0.07234520139805665</v>
+        <v>0.07752723942748582</v>
       </c>
       <c r="K148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1036854468223429</v>
+        <v>0.1023169268786761</v>
       </c>
       <c r="M148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1341226297808422</v>
+        <v>0.1395032748022589</v>
       </c>
       <c r="O148" t="n">
         <v>3.005102758855619</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0676635131124031</v>
+        <v>0.07539614953169824</v>
       </c>
       <c r="G149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0676635131124031</v>
+        <v>0.07539614953169824</v>
       </c>
       <c r="K149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1050344991213786</v>
+        <v>0.09954542283787871</v>
       </c>
       <c r="M149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1410870648266007</v>
+        <v>0.149099061470041</v>
       </c>
       <c r="O149" t="n">
         <v>3.041308816191229</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06926097714919928</v>
+        <v>0.07897133193640146</v>
       </c>
       <c r="G150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06926097714919928</v>
+        <v>0.07897133193640146</v>
       </c>
       <c r="K150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1044492329297408</v>
+        <v>0.102709741959797</v>
       </c>
       <c r="M150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1396018621392036</v>
+        <v>0.1424703386920763</v>
       </c>
       <c r="O150" t="n">
         <v>3.077514873526839</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06880672626156381</v>
+        <v>0.07760936372175226</v>
       </c>
       <c r="G151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06880672626156381</v>
+        <v>0.07760936372175226</v>
       </c>
       <c r="K151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1116456660827162</v>
+        <v>0.09713309340651669</v>
       </c>
       <c r="M151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1329958957541494</v>
+        <v>0.1394194978669307</v>
       </c>
       <c r="O151" t="n">
         <v>3.113720930862448</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07150275728832686</v>
+        <v>0.07337511661572159</v>
       </c>
       <c r="G152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07150275728832686</v>
+        <v>0.07337511661572159</v>
       </c>
       <c r="K152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="L152" t="n">
-        <v>0.11115005046675</v>
+        <v>0.1013597473777204</v>
       </c>
       <c r="M152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1404258114478109</v>
+        <v>0.1511002299573951</v>
       </c>
       <c r="O152" t="n">
         <v>3.149926988198058</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06884534279544903</v>
+        <v>0.07529031004241613</v>
       </c>
       <c r="G153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06884534279544903</v>
+        <v>0.07529031004241613</v>
       </c>
       <c r="K153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1020911841189632</v>
+        <v>0.1036637100856902</v>
       </c>
       <c r="M153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="N153" t="n">
-        <v>0.132002477448681</v>
+        <v>0.1440115697810311</v>
       </c>
       <c r="O153" t="n">
         <v>3.186133045533668</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06838252826840711</v>
+        <v>0.07707587440584643</v>
       </c>
       <c r="G154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06838252826840711</v>
+        <v>0.07707587440584643</v>
       </c>
       <c r="K154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1044047677540358</v>
+        <v>0.09979344440119672</v>
       </c>
       <c r="M154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1367368139776929</v>
+        <v>0.1463944379606443</v>
       </c>
       <c r="O154" t="n">
         <v>3.222339102869278</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06950282036360775</v>
+        <v>0.07775812916079645</v>
       </c>
       <c r="G155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06950282036360775</v>
+        <v>0.07775812916079645</v>
       </c>
       <c r="K155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1020586646122882</v>
+        <v>0.09889746451368052</v>
       </c>
       <c r="M155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1337627155202017</v>
+        <v>0.1414472289344186</v>
       </c>
       <c r="O155" t="n">
         <v>3.258545160204888</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06824516558173292</v>
+        <v>0.07804821372993462</v>
       </c>
       <c r="G156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06824516558173292</v>
+        <v>0.07804821372993462</v>
       </c>
       <c r="K156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1026776454441515</v>
+        <v>0.09956196233512991</v>
       </c>
       <c r="M156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="N156" t="n">
-        <v>0.134562547515325</v>
+        <v>0.1499124187882818</v>
       </c>
       <c r="O156" t="n">
         <v>3.294751217540498</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06837764998507229</v>
+        <v>0.07486659972930744</v>
       </c>
       <c r="G157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="J157" t="n">
-        <v>0.06837764998507229</v>
+        <v>0.07486659972930744</v>
       </c>
       <c r="K157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1045133777038374</v>
+        <v>0.1007031131067382</v>
       </c>
       <c r="M157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1432105430203604</v>
+        <v>0.1437526521634769</v>
       </c>
       <c r="O157" t="n">
         <v>3.330957274876108</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06556181601660095</v>
+        <v>0.07601865987966704</v>
       </c>
       <c r="G158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06556181601660095</v>
+        <v>0.07601865987966704</v>
       </c>
       <c r="K158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1095878895858162</v>
+        <v>0.09781529441368822</v>
       </c>
       <c r="M158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1398486823780518</v>
+        <v>0.1497707509686147</v>
       </c>
       <c r="O158" t="n">
         <v>3.367163332211717</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06556763362407113</v>
+        <v>0.0778654633872802</v>
       </c>
       <c r="G159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06556763362407113</v>
+        <v>0.0778654633872802</v>
       </c>
       <c r="K159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="L159" t="n">
-        <v>0.102607920351446</v>
+        <v>0.09937473399293296</v>
       </c>
       <c r="M159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1352716669577727</v>
+        <v>0.1467905791363874</v>
       </c>
       <c r="O159" t="n">
         <v>3.403369389547327</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06696821400953505</v>
+        <v>0.07862540223750501</v>
       </c>
       <c r="G160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06696821400953505</v>
+        <v>0.07862540223750501</v>
       </c>
       <c r="K160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1031445828899881</v>
+        <v>0.1030465096146022</v>
       </c>
       <c r="M160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1359392077930953</v>
+        <v>0.1412343852495116</v>
       </c>
       <c r="O160" t="n">
         <v>3.439575446882937</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06612727241833433</v>
+        <v>0.07761459208860515</v>
       </c>
       <c r="G161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06612727241833433</v>
+        <v>0.07761459208860515</v>
       </c>
       <c r="K161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1093537668967568</v>
+        <v>0.09517891155591739</v>
       </c>
       <c r="M161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1362468668027421</v>
+        <v>0.148175421408654</v>
       </c>
       <c r="O161" t="n">
         <v>3.475781504218547</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06802048346736797</v>
+        <v>0.07826074300622704</v>
       </c>
       <c r="G162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06802048346736797</v>
+        <v>0.07826074300622704</v>
       </c>
       <c r="K162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="L162" t="n">
-        <v>0.105279721068357</v>
+        <v>0.101636275271899</v>
       </c>
       <c r="M162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1370733042198079</v>
+        <v>0.1397060259472764</v>
       </c>
       <c r="O162" t="n">
         <v>3.511987561554157</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0684703698308302</v>
+        <v>0.07837565226198598</v>
       </c>
       <c r="G163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0684703698308302</v>
+        <v>0.07837565226198598</v>
       </c>
       <c r="K163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1067387425892092</v>
+        <v>0.0975900157500007</v>
       </c>
       <c r="M163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1351939534742039</v>
+        <v>0.1427923190041161</v>
       </c>
       <c r="O163" t="n">
         <v>3.548193618889767</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06576237923578002</v>
+        <v>0.07256248778127235</v>
       </c>
       <c r="G164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06576237923578002</v>
+        <v>0.07256248778127235</v>
       </c>
       <c r="K164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1072655303058549</v>
+        <v>0.1000725350796483</v>
       </c>
       <c r="M164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1334802244539549</v>
+        <v>0.144410864034593</v>
       </c>
       <c r="O164" t="n">
         <v>3.584399676225377</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06733252436619387</v>
+        <v>0.07203529154215205</v>
       </c>
       <c r="G165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06733252436619387</v>
+        <v>0.07203529154215205</v>
       </c>
       <c r="K165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1064412888153768</v>
+        <v>0.1006925594475488</v>
       </c>
       <c r="M165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1361225861573968</v>
+        <v>0.1383341793239072</v>
       </c>
       <c r="O165" t="n">
         <v>3.620605733560986</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07009333899687437</v>
+        <v>0.07441262667950166</v>
       </c>
       <c r="G166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07009333899687437</v>
+        <v>0.07441262667950166</v>
       </c>
       <c r="K166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1044755212663499</v>
+        <v>0.09801679563234984</v>
       </c>
       <c r="M166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1358806129250111</v>
+        <v>0.144668482274516</v>
       </c>
       <c r="O166" t="n">
         <v>3.656811790896596</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.06471333345484062</v>
+        <v>0.07008080054533153</v>
       </c>
       <c r="G167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="J167" t="n">
-        <v>0.06471333345484062</v>
+        <v>0.07008080054533153</v>
       </c>
       <c r="K167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1041491125028029</v>
+        <v>0.1001995858217073</v>
       </c>
       <c r="M167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1290619664014804</v>
+        <v>0.142156238372487</v>
       </c>
       <c r="O167" t="n">
         <v>3.693017848232206</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06768944481669151</v>
+        <v>0.07244203357926254</v>
       </c>
       <c r="G168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="J168" t="n">
-        <v>0.06768944481669151</v>
+        <v>0.07244203357926254</v>
       </c>
       <c r="K168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1067849794232118</v>
+        <v>0.10114409242127</v>
       </c>
       <c r="M168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1289565535514881</v>
+        <v>0.135306390460134</v>
       </c>
       <c r="O168" t="n">
         <v>3.729223905567816</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06772640845661212</v>
+        <v>0.07509759295155738</v>
       </c>
       <c r="G169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="J169" t="n">
-        <v>0.06772640845661212</v>
+        <v>0.07509759295155738</v>
       </c>
       <c r="K169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1033743145395471</v>
+        <v>0.09909167925046868</v>
       </c>
       <c r="M169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1327070752965749</v>
+        <v>0.1314836612969842</v>
       </c>
       <c r="O169" t="n">
         <v>3.765429962903426</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06950388725856459</v>
+        <v>0.0704211724581765</v>
       </c>
       <c r="G170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06950388725856459</v>
+        <v>0.0704211724581765</v>
       </c>
       <c r="K170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1058289403161634</v>
+        <v>0.1001424021811735</v>
       </c>
       <c r="M170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1349002344478008</v>
+        <v>0.1347118800765293</v>
       </c>
       <c r="O170" t="n">
         <v>3.801636020239036</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06944627698087426</v>
+        <v>0.06977390864527659</v>
       </c>
       <c r="G171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="J171" t="n">
-        <v>0.06944627698087426</v>
+        <v>0.06977390864527659</v>
       </c>
       <c r="K171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="L171" t="n">
-        <v>0.112225970095555</v>
+        <v>0.09952141578801957</v>
       </c>
       <c r="M171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1295855820004141</v>
+        <v>0.1377162346752784</v>
       </c>
       <c r="O171" t="n">
         <v>3.837842077574646</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06723655395740993</v>
+        <v>0.07328139307918902</v>
       </c>
       <c r="G172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06723655395740993</v>
+        <v>0.07328139307918902</v>
       </c>
       <c r="K172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1087743830792739</v>
+        <v>0.09719088464890968</v>
       </c>
       <c r="M172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="N172" t="n">
-        <v>0.12856702950247</v>
+        <v>0.1312956835157222</v>
       </c>
       <c r="O172" t="n">
         <v>3.874048134910256</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06907446756962971</v>
+        <v>0.06808262035203337</v>
       </c>
       <c r="G173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="J173" t="n">
-        <v>0.06907446756962971</v>
+        <v>0.06808262035203337</v>
       </c>
       <c r="K173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1042372695978504</v>
+        <v>0.1014138739827076</v>
       </c>
       <c r="M173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1310225933430805</v>
+        <v>0.1293490217332718</v>
       </c>
       <c r="O173" t="n">
         <v>3.910254192245866</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06694923352120975</v>
+        <v>0.0679070236250703</v>
       </c>
       <c r="G174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="J174" t="n">
-        <v>0.06694923352120975</v>
+        <v>0.0679070236250703</v>
       </c>
       <c r="K174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1130168970367934</v>
+        <v>0.09628808351741772</v>
       </c>
       <c r="M174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1226351925794721</v>
+        <v>0.1278420626037902</v>
       </c>
       <c r="O174" t="n">
         <v>3.946460249581476</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06627277068371107</v>
+        <v>0.07118412022972674</v>
       </c>
       <c r="G175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="J175" t="n">
-        <v>0.06627277068371107</v>
+        <v>0.07118412022972674</v>
       </c>
       <c r="K175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1128952493236978</v>
+        <v>0.09727818118524297</v>
       </c>
       <c r="M175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1212905276998149</v>
+        <v>0.127336405085448</v>
       </c>
       <c r="O175" t="n">
         <v>3.982666306917085</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06763708478449885</v>
+        <v>0.07049862223220985</v>
       </c>
       <c r="G176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="J176" t="n">
-        <v>0.06763708478449885</v>
+        <v>0.07049862223220985</v>
       </c>
       <c r="K176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1118718441149889</v>
+        <v>0.1016548965013902</v>
       </c>
       <c r="M176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1221235266153494</v>
+        <v>0.1224657349857166</v>
       </c>
       <c r="O176" t="n">
         <v>4.018872364252696</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06351174169727958</v>
+        <v>0.06628607761787601</v>
       </c>
       <c r="G177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="J177" t="n">
-        <v>0.06351174169727958</v>
+        <v>0.06628607761787601</v>
       </c>
       <c r="K177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1051135252959432</v>
+        <v>0.09819242172017993</v>
       </c>
       <c r="M177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1280984057488115</v>
+        <v>0.1217146949336685</v>
       </c>
       <c r="O177" t="n">
         <v>4.055078421588305</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.06557707543525217</v>
+        <v>0.06696822821328483</v>
       </c>
       <c r="G178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="J178" t="n">
-        <v>0.06557707543525217</v>
+        <v>0.06696822821328483</v>
       </c>
       <c r="K178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1074405991130127</v>
+        <v>0.09901291471795028</v>
       </c>
       <c r="M178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1243185567535624</v>
+        <v>0.127895180181814</v>
       </c>
       <c r="O178" t="n">
         <v>4.091284478923915</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.06417685816362842</v>
+        <v>0.06640284298701306</v>
       </c>
       <c r="G179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="J179" t="n">
-        <v>0.06417685816362842</v>
+        <v>0.06640284298701306</v>
       </c>
       <c r="K179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1067014421228365</v>
+        <v>0.1019440653638451</v>
       </c>
       <c r="M179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1290362112386428</v>
+        <v>0.120510791419474</v>
       </c>
       <c r="O179" t="n">
         <v>4.127490536259525</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.06284889091122596</v>
+        <v>0.06739389359166273</v>
       </c>
       <c r="G180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="J180" t="n">
-        <v>0.06284889091122596</v>
+        <v>0.06739389359166273</v>
       </c>
       <c r="K180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1084489720375973</v>
+        <v>0.1026647634762906</v>
       </c>
       <c r="M180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1196898975677123</v>
+        <v>0.1243287341542742</v>
       </c>
       <c r="O180" t="n">
         <v>4.163696593595135</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.06492976135308071</v>
+        <v>0.06591604587658918</v>
       </c>
       <c r="G181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06492976135308071</v>
+        <v>0.06591604587658918</v>
       </c>
       <c r="K181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1105796091399216</v>
+        <v>0.1030949820215378</v>
       </c>
       <c r="M181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1266809791641223</v>
+        <v>0.1214707703430875</v>
       </c>
       <c r="O181" t="n">
         <v>4.199902650930745</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06603876123208177</v>
+        <v>0.06694539846530387</v>
       </c>
       <c r="G182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06603876123208177</v>
+        <v>0.06694539846530387</v>
       </c>
       <c r="K182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1067764360547637</v>
+        <v>0.1005249610924698</v>
       </c>
       <c r="M182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1268677497085532</v>
+        <v>0.1233328647982002</v>
       </c>
       <c r="O182" t="n">
         <v>4.236108708266355</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06293061364034953</v>
+        <v>0.0641093840567693</v>
       </c>
       <c r="G183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06293061364034953</v>
+        <v>0.0641093840567693</v>
       </c>
       <c r="K183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1086036166774424</v>
+        <v>0.1010638988763309</v>
       </c>
       <c r="M183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1188104738295338</v>
+        <v>0.1199306834353865</v>
       </c>
       <c r="O183" t="n">
         <v>4.272314765601964</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06183552016597776</v>
+        <v>0.0681326637145651</v>
       </c>
       <c r="G184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06183552016597776</v>
+        <v>0.0681326637145651</v>
       </c>
       <c r="K184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="L184" t="n">
-        <v>0.107113525177774</v>
+        <v>0.09844004211260925</v>
       </c>
       <c r="M184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1244807995949594</v>
+        <v>0.1223591390904393</v>
       </c>
       <c r="O184" t="n">
         <v>4.308520822937574</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06202115276189463</v>
+        <v>0.06727350913746503</v>
       </c>
       <c r="G185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06202115276189463</v>
+        <v>0.06727350913746503</v>
       </c>
       <c r="K185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1136977799353741</v>
+        <v>0.09651054884516923</v>
       </c>
       <c r="M185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1169021689503525</v>
+        <v>0.1240376314852429</v>
       </c>
       <c r="O185" t="n">
         <v>4.344726880273184</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06368509327752113</v>
+        <v>0.06673902711642306</v>
       </c>
       <c r="G186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06368509327752113</v>
+        <v>0.06673902711642306</v>
       </c>
       <c r="K186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1149696663463938</v>
+        <v>0.1020532757841946</v>
       </c>
       <c r="M186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1156703900443206</v>
+        <v>0.1156048656844608</v>
       </c>
       <c r="O186" t="n">
         <v>4.380932937608794</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06623751489491823</v>
+        <v>0.06895695495309398</v>
       </c>
       <c r="G187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06623751489491823</v>
+        <v>0.06895695495309398</v>
       </c>
       <c r="K187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1102600195890881</v>
+        <v>0.09570134748857442</v>
       </c>
       <c r="M187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1224403822222664</v>
+        <v>0.1173813822208343</v>
       </c>
       <c r="O187" t="n">
         <v>4.417138994944404</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06581424013308496</v>
+        <v>0.06455560882516725</v>
       </c>
       <c r="G188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06581424013308496</v>
+        <v>0.06455560882516725</v>
       </c>
       <c r="K188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1108915564565356</v>
+        <v>0.09565174651551397</v>
       </c>
       <c r="M188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1186830285989989</v>
+        <v>0.1145292403405115</v>
       </c>
       <c r="O188" t="n">
         <v>4.453345052280014</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06481282975737089</v>
+        <v>0.06488596668556566</v>
       </c>
       <c r="G189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06481282975737089</v>
+        <v>0.06488596668556566</v>
       </c>
       <c r="K189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1077289865054651</v>
+        <v>0.09506368996174418</v>
       </c>
       <c r="M189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1167375815968519</v>
+        <v>0.1153236386123333</v>
       </c>
       <c r="O189" t="n">
         <v>4.489551109615624</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06157433482589007</v>
+        <v>0.06662571617372182</v>
       </c>
       <c r="G190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06157433482589007</v>
+        <v>0.06662571617372182</v>
       </c>
       <c r="K190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1144820360765899</v>
+        <v>0.0988228103523625</v>
       </c>
       <c r="M190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1217983426022673</v>
+        <v>0.1178954419601752</v>
       </c>
       <c r="O190" t="n">
         <v>4.525757166951233</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0609855211286202</v>
+        <v>0.06530285396345048</v>
       </c>
       <c r="G191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0609855211286202</v>
+        <v>0.06530285396345048</v>
       </c>
       <c r="K191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1099355932065314</v>
+        <v>0.0937284924466177</v>
       </c>
       <c r="M191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1139200817170725</v>
+        <v>0.117179687377192</v>
       </c>
       <c r="O191" t="n">
         <v>4.561963224286843</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.06324859614459599</v>
+        <v>0.06700101059504902</v>
       </c>
       <c r="G192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06324859614459599</v>
+        <v>0.06700101059504902</v>
       </c>
       <c r="K192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1131172020663851</v>
+        <v>0.09542180315950372</v>
       </c>
       <c r="M192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1229156369680077</v>
+        <v>0.1177499998879615</v>
       </c>
       <c r="O192" t="n">
         <v>4.598169281622453</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06219601376381226</v>
+        <v>0.06656797295191159</v>
       </c>
       <c r="G193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06219601376381226</v>
+        <v>0.06656797295191159</v>
       </c>
       <c r="K193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1083316736450276</v>
+        <v>0.09286405195666912</v>
       </c>
       <c r="M193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1218110989366233</v>
+        <v>0.1188892344482808</v>
       </c>
       <c r="O193" t="n">
         <v>4.634375338958063</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06124730165193533</v>
+        <v>0.06483749654180535</v>
       </c>
       <c r="G194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06124730165193533</v>
+        <v>0.06483749654180535</v>
       </c>
       <c r="K194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1056261518745467</v>
+        <v>0.09121965465193477</v>
       </c>
       <c r="M194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1192944701059185</v>
+        <v>0.1182258257758675</v>
       </c>
       <c r="O194" t="n">
         <v>4.670581396293673</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06258125105738017</v>
+        <v>0.06718342601868972</v>
       </c>
       <c r="G195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06258125105738017</v>
+        <v>0.06718342601868972</v>
       </c>
       <c r="K195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1091261572564954</v>
+        <v>0.08878377936965393</v>
       </c>
       <c r="M195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1189654680451686</v>
+        <v>0.1257165478091462</v>
       </c>
       <c r="O195" t="n">
         <v>4.706787453629283</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0629338195744053</v>
+        <v>0.06609602454957116</v>
       </c>
       <c r="G196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0629338195744053</v>
+        <v>0.06609602454957116</v>
       </c>
       <c r="K196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1097599256272605</v>
+        <v>0.09307069720688793</v>
       </c>
       <c r="M196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1206144195997292</v>
+        <v>0.1212679420720774</v>
       </c>
       <c r="O196" t="n">
         <v>4.742993510964893</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06000137056544972</v>
+        <v>0.06730519972883744</v>
       </c>
       <c r="G197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06000137056544972</v>
+        <v>0.06730519972883744</v>
       </c>
       <c r="K197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1139520563567691</v>
+        <v>0.09367085608520639</v>
       </c>
       <c r="M197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1214174679854896</v>
+        <v>0.1243226805839914</v>
       </c>
       <c r="O197" t="n">
         <v>4.779199568300502</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06319384552589312</v>
+        <v>0.06550019320896035</v>
       </c>
       <c r="G198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06319384552589312</v>
+        <v>0.06550019320896035</v>
       </c>
       <c r="K198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="L198" t="n">
-        <v>0.111717566161519</v>
+        <v>0.08530235309322208</v>
       </c>
       <c r="M198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1160796741340806</v>
+        <v>0.1226544653625631</v>
       </c>
       <c r="O198" t="n">
         <v>4.815405625636112</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05940864238029829</v>
+        <v>0.06512330595359225</v>
       </c>
       <c r="G199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05940864238029829</v>
+        <v>0.06512330595359225</v>
       </c>
       <c r="K199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1110529726407729</v>
+        <v>0.08488248908336619</v>
       </c>
       <c r="M199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1164039815783731</v>
+        <v>0.1192229925775868</v>
       </c>
       <c r="O199" t="n">
         <v>4.851611682971722</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05929633670254891</v>
+        <v>0.06532999572523118</v>
       </c>
       <c r="G200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05929633670254891</v>
+        <v>0.06532999572523118</v>
       </c>
       <c r="K200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1071650470216916</v>
+        <v>0.08489460538937649</v>
       </c>
       <c r="M200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1204283820930416</v>
+        <v>0.1224372254242832</v>
       </c>
       <c r="O200" t="n">
         <v>4.887817740307332</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06239063218367088</v>
+        <v>0.06612294842283255</v>
       </c>
       <c r="G201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="J201" t="n">
-        <v>0.06239063218367088</v>
+        <v>0.06612294842283255</v>
       </c>
       <c r="K201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1080202811505434</v>
+        <v>0.08414180443342803</v>
       </c>
       <c r="M201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1221246366560589</v>
+        <v>0.122880138050287</v>
       </c>
       <c r="O201" t="n">
         <v>4.924023797642942</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0633786574691655</v>
+        <v>0.06852810459219624</v>
       </c>
       <c r="G202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0633786574691655</v>
+        <v>0.06852810459219624</v>
       </c>
       <c r="K202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1114607014624826</v>
+        <v>0.08900352873506925</v>
       </c>
       <c r="M202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1123696384360296</v>
+        <v>0.1233505167616381</v>
       </c>
       <c r="O202" t="n">
         <v>4.960229854978552</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05885293561640075</v>
+        <v>0.06600079306060802</v>
       </c>
       <c r="G203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05885293561640075</v>
+        <v>0.06600079306060802</v>
       </c>
       <c r="K203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1114073412915727</v>
+        <v>0.08357960625497016</v>
       </c>
       <c r="M203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1146453722467981</v>
+        <v>0.1234908916883658</v>
       </c>
       <c r="O203" t="n">
         <v>4.996435912314162</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06223624815521751</v>
+        <v>0.07147703279763998</v>
       </c>
       <c r="G204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06223624815521751</v>
+        <v>0.07147703279763998</v>
       </c>
       <c r="K204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="L204" t="n">
-        <v>0.113033495927767</v>
+        <v>0.08023337955843803</v>
       </c>
       <c r="M204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="N204" t="n">
-        <v>0.117331166367947</v>
+        <v>0.1263261012308025</v>
       </c>
       <c r="O204" t="n">
         <v>5.032641969649771</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05886100196311458</v>
+        <v>0.07152379502612971</v>
       </c>
       <c r="G205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05886100196311458</v>
+        <v>0.07152379502612971</v>
       </c>
       <c r="K205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1051609038176071</v>
+        <v>0.08003177991441196</v>
       </c>
       <c r="M205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1152339690697822</v>
+        <v>0.1317096717155656</v>
       </c>
       <c r="O205" t="n">
         <v>5.068848026985381</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05763430533585102</v>
+        <v>0.06770859882041927</v>
       </c>
       <c r="G206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05763430533585102</v>
+        <v>0.06770859882041927</v>
       </c>
       <c r="K206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1081465512528869</v>
+        <v>0.07920986804793734</v>
       </c>
       <c r="M206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1116893231533079</v>
+        <v>0.1274601666046732</v>
       </c>
       <c r="O206" t="n">
         <v>5.105054084320991</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06111913976559746</v>
+        <v>0.069484967916802</v>
       </c>
       <c r="G207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06111913976559746</v>
+        <v>0.069484967916802</v>
       </c>
       <c r="K207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="L207" t="n">
-        <v>0.110297131767128</v>
+        <v>0.08115941756367642</v>
       </c>
       <c r="M207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1170292318095875</v>
+        <v>0.1284485806300616</v>
       </c>
       <c r="O207" t="n">
         <v>5.141260141656601</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05987343695780927</v>
+        <v>0.06734111575504871</v>
       </c>
       <c r="G208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05987343695780927</v>
+        <v>0.06734111575504871</v>
       </c>
       <c r="K208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.107146368449473</v>
+        <v>0.07875219753359651</v>
       </c>
       <c r="M208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1152746662143002</v>
+        <v>0.1265551718284579</v>
       </c>
       <c r="O208" t="n">
         <v>5.177466198992211</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05746668138234521</v>
+        <v>0.06797805802849681</v>
       </c>
       <c r="G209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05746668138234521</v>
+        <v>0.06797805802849681</v>
       </c>
       <c r="K209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1123525322480117</v>
+        <v>0.08087493064962228</v>
       </c>
       <c r="M209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1178185136715294</v>
+        <v>0.1320659941242007</v>
       </c>
       <c r="O209" t="n">
         <v>5.213672256327821</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05714620082279782</v>
+        <v>0.07129497798039446</v>
       </c>
       <c r="G210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05714620082279782</v>
+        <v>0.07129497798039446</v>
       </c>
       <c r="K210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1073948416030533</v>
+        <v>0.08054440573940527</v>
       </c>
       <c r="M210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1155227857392154</v>
+        <v>0.1310920489611965</v>
       </c>
       <c r="O210" t="n">
         <v>5.24987831366343</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05907581216373559</v>
+        <v>0.07007892644525304</v>
       </c>
       <c r="G211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05907581216373559</v>
+        <v>0.07007892644525304</v>
       </c>
       <c r="K211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1095002904059782</v>
+        <v>0.08191678620080235</v>
       </c>
       <c r="M211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1145310396941457</v>
+        <v>0.1294931114200549</v>
       </c>
       <c r="O211" t="n">
         <v>5.28608437099904</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06172078287466125</v>
+        <v>0.06864897842169083</v>
       </c>
       <c r="G212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="J212" t="n">
-        <v>0.06172078287466125</v>
+        <v>0.06864897842169083</v>
       </c>
       <c r="K212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1067258651723764</v>
+        <v>0.07734785822027988</v>
       </c>
       <c r="M212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1139374647895766</v>
+        <v>0.1249479852709201</v>
       </c>
       <c r="O212" t="n">
         <v>5.32229042833465</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06168719542270278</v>
+        <v>0.07212500528086696</v>
       </c>
       <c r="G213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06168719542270278</v>
+        <v>0.07212500528086696</v>
       </c>
       <c r="K213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1028798865632311</v>
+        <v>0.08143818139424566</v>
       </c>
       <c r="M213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1159642671949717</v>
+        <v>0.1286733525624161</v>
       </c>
       <c r="O213" t="n">
         <v>5.35849648567026</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05893711758011348</v>
+        <v>0.06773389388560491</v>
       </c>
       <c r="G214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05893711758011348</v>
+        <v>0.06773389388560491</v>
       </c>
       <c r="K214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="L214" t="n">
-        <v>0.111014189950519</v>
+        <v>0.07942902636102021</v>
       </c>
       <c r="M214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1128940996878008</v>
+        <v>0.1234197761024496</v>
       </c>
       <c r="O214" t="n">
         <v>5.39470254300587</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06035652875084448</v>
+        <v>0.07104386714011524</v>
       </c>
       <c r="G215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="J215" t="n">
-        <v>0.06035652875084448</v>
+        <v>0.07104386714011524</v>
       </c>
       <c r="K215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1039994385546063</v>
+        <v>0.07649828548988974</v>
       </c>
       <c r="M215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1127437794005635</v>
+        <v>0.1304506444296433</v>
       </c>
       <c r="O215" t="n">
         <v>5.43090860034148</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.05763473706393316</v>
+        <v>0.06558989576247568</v>
       </c>
       <c r="G216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05763473706393316</v>
+        <v>0.06558989576247568</v>
       </c>
       <c r="K216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="L216" t="n">
-        <v>0.102803080372848</v>
+        <v>0.07662025390006381</v>
       </c>
       <c r="M216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1122914224739029</v>
+        <v>0.1245616261456201</v>
       </c>
       <c r="O216" t="n">
         <v>5.46711465767709</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.05884317318125799</v>
+        <v>0.06745271119421281</v>
       </c>
       <c r="G217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05884317318125799</v>
+        <v>0.06745271119421281</v>
       </c>
       <c r="K217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1035570536526889</v>
+        <v>0.08168963724334623</v>
       </c>
       <c r="M217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1146341250767119</v>
+        <v>0.128058413027207</v>
       </c>
       <c r="O217" t="n">
         <v>5.503320715012699</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05774390604377632</v>
+        <v>0.06533776727621136</v>
       </c>
       <c r="G218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05774390604377632</v>
+        <v>0.06533776727621136</v>
       </c>
       <c r="K218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1033151685650391</v>
+        <v>0.07633165944309796</v>
       </c>
       <c r="M218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1072145242553228</v>
+        <v>0.1216706921539381</v>
       </c>
       <c r="O218" t="n">
         <v>5.539526772348309</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.05817614542376192</v>
+        <v>0.06807987025609952</v>
       </c>
       <c r="G219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05817614542376192</v>
+        <v>0.06807987025609952</v>
       </c>
       <c r="K219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1047694115454833</v>
+        <v>0.07600599174855033</v>
       </c>
       <c r="M219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1082282271975402</v>
+        <v>0.1174273721392096</v>
       </c>
       <c r="O219" t="n">
         <v>5.575732829683919</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.05907552009558183</v>
+        <v>0.06341405776073368</v>
       </c>
       <c r="G220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05907552009558183</v>
+        <v>0.06341405776073368</v>
       </c>
       <c r="K220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1042050292217514</v>
+        <v>0.07646472549401014</v>
       </c>
       <c r="M220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1107753922571798</v>
+        <v>0.1231643224164071</v>
       </c>
       <c r="O220" t="n">
         <v>5.611938887019529</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05691270790896028</v>
+        <v>0.0629048856766125</v>
       </c>
       <c r="G221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05691270790896028</v>
+        <v>0.0629048856766125</v>
       </c>
       <c r="K221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1033166237893488</v>
+        <v>0.08101901465741899</v>
       </c>
       <c r="M221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1093610686751275</v>
+        <v>0.1163573258036002</v>
       </c>
       <c r="O221" t="n">
         <v>5.648144944355139</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.05835297977539269</v>
+        <v>0.0646917376759915</v>
       </c>
       <c r="G222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05835297977539269</v>
+        <v>0.0646917376759915</v>
       </c>
       <c r="K222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1021480671853728</v>
+        <v>0.07810382961851822</v>
       </c>
       <c r="M222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1028065318889867</v>
+        <v>0.115542242730525</v>
       </c>
       <c r="O222" t="n">
         <v>5.684351001690749</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05659743559228287</v>
+        <v>0.06468233622076568</v>
       </c>
       <c r="G223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05659743559228287</v>
+        <v>0.06468233622076568</v>
       </c>
       <c r="K223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09588700325907747</v>
+        <v>0.07771177080322912</v>
       </c>
       <c r="M223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1009185092499189</v>
+        <v>0.1203105803778136</v>
       </c>
       <c r="O223" t="n">
         <v>5.720557059026359</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05939455602625261</v>
+        <v>0.06445950666598466</v>
       </c>
       <c r="G224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05939455602625261</v>
+        <v>0.06445950666598466</v>
       </c>
       <c r="K224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="L224" t="n">
-        <v>0.100912788369839</v>
+        <v>0.07536913417740519</v>
       </c>
       <c r="M224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1069915547322971</v>
+        <v>0.1145808564249122</v>
       </c>
       <c r="O224" t="n">
         <v>5.756763116361968</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.05628834281591782</v>
+        <v>0.06039435544234226</v>
       </c>
       <c r="G225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05628834281591782</v>
+        <v>0.06039435544234226</v>
       </c>
       <c r="K225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09749650841776854</v>
+        <v>0.07964986256340009</v>
       </c>
       <c r="M225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09834211964528344</v>
+        <v>0.1112487541131659</v>
       </c>
       <c r="O225" t="n">
         <v>5.792969173697578</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05652014652003603</v>
+        <v>0.0605776698165333</v>
       </c>
       <c r="G226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05652014652003603</v>
+        <v>0.0605776698165333</v>
       </c>
       <c r="K226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09333808600976787</v>
+        <v>0.07683470589642001</v>
       </c>
       <c r="M226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09914351889169236</v>
+        <v>0.1142590051455633</v>
       </c>
       <c r="O226" t="n">
         <v>5.829175231033188</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05921811434586277</v>
+        <v>0.06001655646395361</v>
       </c>
       <c r="G227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05921811434586277</v>
+        <v>0.06001655646395361</v>
       </c>
       <c r="K227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0969427587122208</v>
+        <v>0.07706609973030022</v>
       </c>
       <c r="M227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1016781826133031</v>
+        <v>0.1125394729438274</v>
       </c>
       <c r="O227" t="n">
         <v>5.865381288368798</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.05981476545898871</v>
+        <v>0.06155910838168561</v>
       </c>
       <c r="G228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05981476545898871</v>
+        <v>0.06155910838168561</v>
       </c>
       <c r="K228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09228891736227941</v>
+        <v>0.0816667984243918</v>
       </c>
       <c r="M228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09534484128468131</v>
+        <v>0.107902402946021</v>
       </c>
       <c r="O228" t="n">
         <v>5.901587345704408</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05860223181320483</v>
+        <v>0.06234948802290873</v>
       </c>
       <c r="G229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05860223181320483</v>
+        <v>0.06234948802290873</v>
       </c>
       <c r="K229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09065238627461314</v>
+        <v>0.08034135358850014</v>
       </c>
       <c r="M229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09458955520865077</v>
+        <v>0.1064554965461819</v>
       </c>
       <c r="O229" t="n">
         <v>5.937793403040018</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.05988461808359716</v>
+        <v>0.06109528611101392</v>
       </c>
       <c r="G230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05988461808359716</v>
+        <v>0.06109528611101392</v>
       </c>
       <c r="K230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09504785372544217</v>
+        <v>0.07773283258240836</v>
       </c>
       <c r="M230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09316227223473321</v>
+        <v>0.1017057218713227</v>
       </c>
       <c r="O230" t="n">
         <v>5.973999460375628</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05956654199719134</v>
+        <v>0.05691734412108076</v>
       </c>
       <c r="G231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05956654199719134</v>
+        <v>0.05691734412108076</v>
       </c>
       <c r="K231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08996527346203081</v>
+        <v>0.07465398842887495</v>
       </c>
       <c r="M231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08998476893632502</v>
+        <v>0.1007824848780098</v>
       </c>
       <c r="O231" t="n">
         <v>6.010205517711237</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05519987005846421</v>
+        <v>0.05883745933633218</v>
       </c>
       <c r="G232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05519987005846421</v>
+        <v>0.05883745933633218</v>
       </c>
       <c r="K232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="L232" t="n">
-        <v>0.092045844697615</v>
+        <v>0.07734265160899642</v>
       </c>
       <c r="M232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09499895397059373</v>
+        <v>0.099321958018476</v>
       </c>
       <c r="O232" t="n">
         <v>6.046411575046847</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05751517612824309</v>
+        <v>0.05666464729587353</v>
       </c>
       <c r="G233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05751517612824309</v>
+        <v>0.05666464729587353</v>
       </c>
       <c r="K233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09124557399751178</v>
+        <v>0.07619794759424285</v>
       </c>
       <c r="M233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09414356951597114</v>
+        <v>0.1047308801839501</v>
       </c>
       <c r="O233" t="n">
         <v>6.082617632382457</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05925631734071379</v>
+        <v>0.05461187839980217</v>
       </c>
       <c r="G234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05925631734071379</v>
+        <v>0.05461187839980217</v>
       </c>
       <c r="K234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08969778401729966</v>
+        <v>0.07434610371853291</v>
       </c>
       <c r="M234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09427377889209086</v>
+        <v>0.1029790057210341</v>
       </c>
       <c r="O234" t="n">
         <v>6.118823689718067</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05532275494898763</v>
+        <v>0.05404449857665568</v>
       </c>
       <c r="G235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05532275494898763</v>
+        <v>0.05404449857665568</v>
       </c>
       <c r="K235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08547236284425654</v>
+        <v>0.07421883764006118</v>
       </c>
       <c r="M235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09116287909175695</v>
+        <v>0.09683076414769669</v>
       </c>
       <c r="O235" t="n">
         <v>6.155029747053677</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05562452927465023</v>
+        <v>0.05538983115918358</v>
       </c>
       <c r="G236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05562452927465023</v>
+        <v>0.05538983115918358</v>
       </c>
       <c r="K236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08525324215727116</v>
+        <v>0.08018194753695682</v>
       </c>
       <c r="M236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09062585634995242</v>
+        <v>0.09872248520239738</v>
       </c>
       <c r="O236" t="n">
         <v>6.191235804389287</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05634339369815199</v>
+        <v>0.05401594608358078</v>
       </c>
       <c r="G237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05634339369815199</v>
+        <v>0.05401594608358078</v>
       </c>
       <c r="K237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0835873903399937</v>
+        <v>0.07610276895203366</v>
       </c>
       <c r="M237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0903505671078904</v>
+        <v>0.0915194236221257</v>
       </c>
       <c r="O237" t="n">
         <v>6.227441861724897</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05681220088425544</v>
+        <v>0.05434986469719311</v>
       </c>
       <c r="G238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05681220088425544</v>
+        <v>0.05434986469719311</v>
       </c>
       <c r="K238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08543388617454459</v>
+        <v>0.07496877717247402</v>
       </c>
       <c r="M238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08912014486844175</v>
+        <v>0.09322218201472036</v>
       </c>
       <c r="O238" t="n">
         <v>6.263647919060507</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05825705273978277</v>
+        <v>0.05542226156608881</v>
       </c>
       <c r="G239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05825705273978277</v>
+        <v>0.05542226156608881</v>
       </c>
       <c r="K239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08042676906396479</v>
+        <v>0.07706461314104816</v>
       </c>
       <c r="M239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08715557336495969</v>
+        <v>0.09111591574362471</v>
       </c>
       <c r="O239" t="n">
         <v>6.299853976396117</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05560241048164821</v>
+        <v>0.05260194866134043</v>
       </c>
       <c r="G240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05560241048164821</v>
+        <v>0.05260194866134043</v>
       </c>
       <c r="K240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07956522453971356</v>
+        <v>0.0786107638492775</v>
       </c>
       <c r="M240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08600315197133875</v>
+        <v>0.08941880417017316</v>
       </c>
       <c r="O240" t="n">
         <v>6.336060033731727</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05474627081632483</v>
+        <v>0.05097109085357598</v>
       </c>
       <c r="G241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05474627081632483</v>
+        <v>0.05097109085357598</v>
       </c>
       <c r="K241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07678258639875264</v>
+        <v>0.07497711889003611</v>
       </c>
       <c r="M241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08145762026397516</v>
+        <v>0.09110197595875971</v>
       </c>
       <c r="O241" t="n">
         <v>6.372266091067337</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05506324685869193</v>
+        <v>0.05349587856255264</v>
       </c>
       <c r="G242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05506324685869193</v>
+        <v>0.05349587856255264</v>
       </c>
       <c r="K242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07508619794378303</v>
+        <v>0.07331393245527895</v>
       </c>
       <c r="M242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07896680000039596</v>
+        <v>0.08459510443140135</v>
       </c>
       <c r="O242" t="n">
         <v>6.408472148402947</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05328172911381567</v>
+        <v>0.05296485199122961</v>
       </c>
       <c r="G243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05328172911381567</v>
+        <v>0.05296485199122961</v>
       </c>
       <c r="K243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07684481339486743</v>
+        <v>0.07240853789824173</v>
       </c>
       <c r="M243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07971111114925288</v>
+        <v>0.085590188332133</v>
       </c>
       <c r="O243" t="n">
         <v>6.444678205738557</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05242163580092552</v>
+        <v>0.04925725547210871</v>
       </c>
       <c r="G244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05242163580092552</v>
+        <v>0.04925725547210871</v>
       </c>
       <c r="K244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="L244" t="n">
-        <v>0.072567339447551</v>
+        <v>0.07048490533999818</v>
       </c>
       <c r="M244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07914755062079071</v>
+        <v>0.08263081681758587</v>
       </c>
       <c r="O244" t="n">
         <v>6.480884263074166</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05638012254181912</v>
+        <v>0.04832832450726109</v>
       </c>
       <c r="G245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05638012254181912</v>
+        <v>0.04832832450726109</v>
       </c>
       <c r="K245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07652416293011534</v>
+        <v>0.07188334503758885</v>
       </c>
       <c r="M245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08150892778432746</v>
+        <v>0.08325220270779717</v>
       </c>
       <c r="O245" t="n">
         <v>6.517090320409776</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05334959052737921</v>
+        <v>0.04773694683535493</v>
       </c>
       <c r="G246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05334959052737921</v>
+        <v>0.04773694683535493</v>
       </c>
       <c r="K246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07166694303220354</v>
+        <v>0.07181696824018827</v>
       </c>
       <c r="M246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08031870022254912</v>
+        <v>0.07826152501721591</v>
       </c>
       <c r="O246" t="n">
         <v>6.553296377745386</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05200080700344237</v>
+        <v>0.04951000534642277</v>
       </c>
       <c r="G247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05200080700344237</v>
+        <v>0.04951000534642277</v>
       </c>
       <c r="K247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07011558418717356</v>
+        <v>0.06866292613413222</v>
       </c>
       <c r="M247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07721720169871661</v>
+        <v>0.07693398130291283</v>
       </c>
       <c r="O247" t="n">
         <v>6.589502435080996</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05467652828615184</v>
+        <v>0.04912072960861109</v>
       </c>
       <c r="G248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="J248" t="n">
-        <v>0.05467652828615184</v>
+        <v>0.04912072960861109</v>
       </c>
       <c r="K248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07223305838206798</v>
+        <v>0.07300833517435965</v>
       </c>
       <c r="M248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07399843199631122</v>
+        <v>0.0793777349294597</v>
       </c>
       <c r="O248" t="n">
         <v>6.625708492416606</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05491530871229922</v>
+        <v>0.04730284162800387</v>
       </c>
       <c r="G249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05491530871229922</v>
+        <v>0.04730284162800387</v>
       </c>
       <c r="K249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06743044603748001</v>
+        <v>0.06709224552350328</v>
       </c>
       <c r="M249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07696674569582886</v>
+        <v>0.07894261707160038</v>
       </c>
       <c r="O249" t="n">
         <v>6.661914549752216</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05210690899169253</v>
+        <v>0.04690881115300457</v>
       </c>
       <c r="G250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05210690899169253</v>
+        <v>0.04690881115300457</v>
       </c>
       <c r="K250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06879924889061338</v>
+        <v>0.06646491110377009</v>
       </c>
       <c r="M250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0717234383095362</v>
+        <v>0.07412532133747947</v>
       </c>
       <c r="O250" t="n">
         <v>6.698120607087826</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05317308521922243</v>
+        <v>0.04645428183818773</v>
       </c>
       <c r="G251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05317308521922243</v>
+        <v>0.04645428183818773</v>
       </c>
       <c r="K251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06384289881653314</v>
+        <v>0.06558617948107838</v>
       </c>
       <c r="M251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07098940652433156</v>
+        <v>0.07439262849246674</v>
       </c>
       <c r="O251" t="n">
         <v>6.734326664423435</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05203961934426515</v>
+        <v>0.04497443172023762</v>
       </c>
       <c r="G252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05203961934426515</v>
+        <v>0.04497443172023762</v>
       </c>
       <c r="K252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06665330626625621</v>
+        <v>0.06666639648503127</v>
       </c>
       <c r="M252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06994026642075067</v>
+        <v>0.069401900692345</v>
       </c>
       <c r="O252" t="n">
         <v>6.770532721759045</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05014212184358446</v>
+        <v>0.04356982809862968</v>
       </c>
       <c r="G253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="J253" t="n">
-        <v>0.05014212184358446</v>
+        <v>0.04356982809862968</v>
       </c>
       <c r="K253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06322761250481324</v>
+        <v>0.06768874131667078</v>
       </c>
       <c r="M253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0723091753173135</v>
+        <v>0.06730501279167204</v>
       </c>
       <c r="O253" t="n">
         <v>6.806738779094655</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0499001602280533</v>
+        <v>0.04359663209695014</v>
       </c>
       <c r="G254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0499001602280533</v>
+        <v>0.04359663209695014</v>
       </c>
       <c r="K254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06402599148792779</v>
+        <v>0.06408797445101611</v>
       </c>
       <c r="M254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0700474972282023</v>
+        <v>0.06530763134551769</v>
       </c>
       <c r="O254" t="n">
         <v>6.842944836430265</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05245083230094699</v>
+        <v>0.04349562479544345</v>
       </c>
       <c r="G255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="J255" t="n">
-        <v>0.05245083230094699</v>
+        <v>0.04349562479544345</v>
       </c>
       <c r="K255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06138244467652083</v>
+        <v>0.06312682269071646</v>
       </c>
       <c r="M255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06994532539474339</v>
+        <v>0.06532835855426786</v>
       </c>
       <c r="O255" t="n">
         <v>6.879150893765875</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04859649782580643</v>
+        <v>0.04155004388513109</v>
       </c>
       <c r="G256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04859649782580643</v>
+        <v>0.04155004388513109</v>
       </c>
       <c r="K256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0617515694029573</v>
+        <v>0.06516305529425284</v>
       </c>
       <c r="M256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06607481479675165</v>
+        <v>0.06072320534462118</v>
       </c>
       <c r="O256" t="n">
         <v>6.915356951101485</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05050016913598511</v>
+        <v>0.04187276432130047</v>
       </c>
       <c r="G257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05050016913598511</v>
+        <v>0.04187276432130047</v>
       </c>
       <c r="K257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06044602919172896</v>
+        <v>0.06237409729335689</v>
       </c>
       <c r="M257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06519825729033819</v>
+        <v>0.06123439068866633</v>
       </c>
       <c r="O257" t="n">
         <v>6.951563008437095</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.04783871546166887</v>
+        <v>0.04111051954513858</v>
       </c>
       <c r="G258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04783871546166887</v>
+        <v>0.04111051954513858</v>
       </c>
       <c r="K258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05934713759109882</v>
+        <v>0.05926518269797555</v>
       </c>
       <c r="M258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06171821020768122</v>
+        <v>0.0606900979182627</v>
       </c>
       <c r="O258" t="n">
         <v>6.987769065772704</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.04810770312184927</v>
+        <v>0.03957327550664409</v>
       </c>
       <c r="G259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04810770312184927</v>
+        <v>0.03957327550664409</v>
       </c>
       <c r="K259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05836642613151265</v>
+        <v>0.06296213311471895</v>
       </c>
       <c r="M259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06208185995940476</v>
+        <v>0.05880395538737684</v>
       </c>
       <c r="O259" t="n">
         <v>7.023975123108314</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.04575958421106235</v>
+        <v>0.03853622819058326</v>
       </c>
       <c r="G260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04575958421106235</v>
+        <v>0.03853622819058326</v>
       </c>
       <c r="K260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05311320718332854</v>
+        <v>0.0608904563006087</v>
       </c>
       <c r="M260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06457575347976001</v>
+        <v>0.05524547156547337</v>
       </c>
       <c r="O260" t="n">
         <v>7.060181180443924</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.04776928187504299</v>
+        <v>0.03715939784658113</v>
       </c>
       <c r="G261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04776928187504299</v>
+        <v>0.03715939784658113</v>
       </c>
       <c r="K261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05534292503749917</v>
+        <v>0.05928200926688718</v>
       </c>
       <c r="M261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05951592355571615</v>
+        <v>0.05144048919370201</v>
       </c>
       <c r="O261" t="n">
         <v>7.096387237779534</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04565324862806591</v>
+        <v>0.03611110550050931</v>
       </c>
       <c r="G262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04565324862806591</v>
+        <v>0.03611110550050931</v>
       </c>
       <c r="K262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05205005989722811</v>
+        <v>0.05884261812518409</v>
       </c>
       <c r="M262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06076783410036817</v>
+        <v>0.04860687001437919</v>
       </c>
       <c r="O262" t="n">
         <v>7.132593295115144</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.04519566547279241</v>
+        <v>0.0382334724306373</v>
       </c>
       <c r="G263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04519566547279241</v>
+        <v>0.0382334724306373</v>
       </c>
       <c r="K263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05120463693325952</v>
+        <v>0.05541922316721288</v>
       </c>
       <c r="M263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06026595973737154</v>
+        <v>0.04838441827555383</v>
       </c>
       <c r="O263" t="n">
         <v>7.168799352450754</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04635008540421155</v>
+        <v>0.03636971565251353</v>
       </c>
       <c r="G264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04635008540421155</v>
+        <v>0.03636971565251353</v>
       </c>
       <c r="K264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0492710011754612</v>
+        <v>0.05582484096856279</v>
       </c>
       <c r="M264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05489554500096895</v>
+        <v>0.04740269295267888</v>
       </c>
       <c r="O264" t="n">
         <v>7.205005409786363</v>
